--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_liskam_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_liskam_2_1.xlsx
@@ -3404,7 +3404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  뷔브르과 관련된 건데……
+    <t xml:space="preserve">[name="제시카"]  뷔브르에 관련된 건데……
 </t>
   </si>
   <si>
@@ -3552,7 +3552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  근데…… 바닐라는 뷔브르에 대해 그렇게 생각하고 있었구나.)
+    <t xml:space="preserve">[name="제시카"]  (그런데…… 바닐라는 뷔브르에 대해 그렇게 생각하고 있었구나.)
 </t>
   </si>
   <si>
@@ -3584,7 +3584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  알겠어.
+    <t xml:space="preserve">[name="제시카"]  네, 알겠어요.
 </t>
   </si>
   <si>
@@ -3636,7 +3636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  알았어.
+    <t xml:space="preserve">[name="제시카"]  네.
 </t>
   </si>
   <si>
